--- a/biology/Médecine/Aura_(médecine)/Aura_(médecine).xlsx
+++ b/biology/Médecine/Aura_(médecine)/Aura_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aura_(m%C3%A9decine)</t>
+          <t>Aura_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aura en médecine est un ensemble de symptômes divers caractérisant - pour une personne donnée - l'arrivée probable d'une migraine.
 Les symptômes de l'aura peuvent inclure des phénomènes visuels tels que des éclairs de lumière, des lignes ondulées, des points lumineux ou des zones aveugles temporaires. Cela peut également s'accompagner de symptômes sensoriels tels que des picotements, des engourdissements, des difficultés de langage ou des troubles moteurs.
